--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt3-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt3-Lrp6.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Wnt3</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt3</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H2">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I2">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J2">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N2">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O2">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P2">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q2">
-        <v>1.81993927612275</v>
+        <v>0.1186106524166667</v>
       </c>
       <c r="R2">
-        <v>7.279757104491002</v>
+        <v>0.7116639145</v>
       </c>
       <c r="S2">
-        <v>0.08082422453970393</v>
+        <v>0.00584491775334851</v>
       </c>
       <c r="T2">
-        <v>0.04985477466973178</v>
+        <v>0.005003403799862195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H3">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I3">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J3">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N3">
         <v>60.953383</v>
       </c>
       <c r="O3">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P3">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q3">
-        <v>2.756301820362834</v>
+        <v>0.1455431334077778</v>
       </c>
       <c r="R3">
-        <v>16.537810922177</v>
+        <v>1.30988820067</v>
       </c>
       <c r="S3">
-        <v>0.122408456233116</v>
+        <v>0.007172101552436584</v>
       </c>
       <c r="T3">
-        <v>0.1132577399522194</v>
+        <v>0.009209262219276022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H4">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I4">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J4">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N4">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O4">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P4">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q4">
-        <v>2.471508802284</v>
+        <v>0.07453513519666666</v>
       </c>
       <c r="R4">
-        <v>14.829052813704</v>
+        <v>0.6708162167699999</v>
       </c>
       <c r="S4">
-        <v>0.1097606854296954</v>
+        <v>0.003672956231863812</v>
       </c>
       <c r="T4">
-        <v>0.1015554607085282</v>
+        <v>0.00471622115384944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H5">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I5">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J5">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N5">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O5">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P5">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q5">
-        <v>2.251209983639</v>
+        <v>0.09426085275833332</v>
       </c>
       <c r="R5">
-        <v>9.004839934556001</v>
+        <v>0.5655651165499999</v>
       </c>
       <c r="S5">
-        <v>0.09997712758378294</v>
+        <v>0.004645003804527894</v>
       </c>
       <c r="T5">
-        <v>0.06166885232988568</v>
+        <v>0.003976245803054237</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H6">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I6">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J6">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N6">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O6">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P6">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q6">
-        <v>1.363685922065</v>
+        <v>0.05231608455888889</v>
       </c>
       <c r="R6">
-        <v>8.182115532390002</v>
+        <v>0.47084476103</v>
       </c>
       <c r="S6">
-        <v>0.06056183226147419</v>
+        <v>0.002578041728914428</v>
       </c>
       <c r="T6">
-        <v>0.05603449680173601</v>
+        <v>0.003310307602343254</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,19 +850,19 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H7">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I7">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J7">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N7">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O7">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P7">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q7">
-        <v>2.726289462199333</v>
+        <v>0.09392374748555557</v>
       </c>
       <c r="R7">
-        <v>16.357736773196</v>
+        <v>0.84531372737</v>
       </c>
       <c r="S7">
-        <v>0.1210755955124326</v>
+        <v>0.004628391868302432</v>
       </c>
       <c r="T7">
-        <v>0.1120245180201644</v>
+        <v>0.005943038321073583</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H8">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I8">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J8">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N8">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O8">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P8">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q8">
-        <v>0.09609965893500001</v>
+        <v>1.4022660212</v>
       </c>
       <c r="R8">
-        <v>0.5765979536100001</v>
+        <v>5.6090640848</v>
       </c>
       <c r="S8">
-        <v>0.004267823939982671</v>
+        <v>0.06910112536466897</v>
       </c>
       <c r="T8">
-        <v>0.00394878024632457</v>
+        <v>0.03943492424408838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H9">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I9">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J9">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N9">
         <v>60.953383</v>
       </c>
       <c r="O9">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P9">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q9">
-        <v>0.1455431334077778</v>
+        <v>1.720673366501333</v>
       </c>
       <c r="R9">
-        <v>1.30988820067</v>
+        <v>10.324040199008</v>
       </c>
       <c r="S9">
-        <v>0.006463628236994489</v>
+        <v>0.08479166164812696</v>
       </c>
       <c r="T9">
-        <v>0.008970653848691744</v>
+        <v>0.07258389937887835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H10">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I10">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J10">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N10">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O10">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P10">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q10">
-        <v>0.13050498776</v>
+        <v>0.8811863466079999</v>
       </c>
       <c r="R10">
-        <v>1.17454488984</v>
+        <v>5.287118079648</v>
       </c>
       <c r="S10">
-        <v>0.00579577822878642</v>
+        <v>0.04342326440634005</v>
       </c>
       <c r="T10">
-        <v>0.00804376711777012</v>
+        <v>0.03717145994203829</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H11">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I11">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J11">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N11">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O11">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P11">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q11">
-        <v>0.1188723791266667</v>
+        <v>1.11439224268</v>
       </c>
       <c r="R11">
-        <v>0.71323427476</v>
+        <v>4.45756897072</v>
       </c>
       <c r="S11">
-        <v>0.00527916946908865</v>
+        <v>0.05491522785451722</v>
       </c>
       <c r="T11">
-        <v>0.004884522044417247</v>
+        <v>0.03133925589288575</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H12">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I12">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J12">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N12">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O12">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P12">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q12">
-        <v>0.07200776076666668</v>
+        <v>0.6185031971786668</v>
       </c>
       <c r="R12">
-        <v>0.6480698469</v>
+        <v>3.711019183072001</v>
       </c>
       <c r="S12">
-        <v>0.00319789319410996</v>
+        <v>0.03047871539390019</v>
       </c>
       <c r="T12">
-        <v>0.004438249205803158</v>
+        <v>0.02609058447903635</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,19 +1222,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H13">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I13">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J13">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N13">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O13">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P13">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q13">
-        <v>0.1439583676844444</v>
+        <v>1.110406839514667</v>
       </c>
       <c r="R13">
-        <v>1.29562530916</v>
+        <v>6.662441037088001</v>
       </c>
       <c r="S13">
-        <v>0.006393248163139275</v>
+        <v>0.05471883441732849</v>
       </c>
       <c r="T13">
-        <v>0.008872975693752864</v>
+        <v>0.04684076587576358</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H14">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I14">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J14">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N14">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O14">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P14">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q14">
-        <v>0.8580550282200001</v>
+        <v>2.531942796166667</v>
       </c>
       <c r="R14">
-        <v>5.14833016932</v>
+        <v>15.191656777</v>
       </c>
       <c r="S14">
-        <v>0.03810656387174848</v>
+        <v>0.124769547239232</v>
       </c>
       <c r="T14">
-        <v>0.03525788523335311</v>
+        <v>0.1068060241576912</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H15">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I15">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J15">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N15">
         <v>60.953383</v>
       </c>
       <c r="O15">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P15">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q15">
-        <v>1.29952612556</v>
+        <v>3.106861657491111</v>
       </c>
       <c r="R15">
-        <v>11.69573513004</v>
+        <v>27.96175491742</v>
       </c>
       <c r="S15">
-        <v>0.05771247027056783</v>
+        <v>0.1531005056381926</v>
       </c>
       <c r="T15">
-        <v>0.08009721081837932</v>
+        <v>0.1965871079790918</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H16">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I16">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J16">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N16">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O16">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P16">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q16">
-        <v>1.16525346912</v>
+        <v>1.591077148446666</v>
       </c>
       <c r="R16">
-        <v>10.48728122208</v>
+        <v>14.31969433602</v>
       </c>
       <c r="S16">
-        <v>0.05174936838248201</v>
+        <v>0.07840539515147535</v>
       </c>
       <c r="T16">
-        <v>0.07182122077979201</v>
+        <v>0.1006756301589992</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H17">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I17">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J17">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N17">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O17">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P17">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q17">
-        <v>1.06138818552</v>
+        <v>2.012155588383333</v>
       </c>
       <c r="R17">
-        <v>6.36832911312</v>
+        <v>12.0729335303</v>
       </c>
       <c r="S17">
-        <v>0.04713666997341695</v>
+        <v>0.09915537670028507</v>
       </c>
       <c r="T17">
-        <v>0.04361294043195818</v>
+        <v>0.08487961841289443</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H18">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I18">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J18">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N18">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O18">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P18">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q18">
-        <v>0.6429431892</v>
+        <v>1.116774342975555</v>
       </c>
       <c r="R18">
-        <v>5.7864887028</v>
+        <v>10.05096908678</v>
       </c>
       <c r="S18">
-        <v>0.02855336184671099</v>
+        <v>0.05503261343518866</v>
       </c>
       <c r="T18">
-        <v>0.0396282576830856</v>
+        <v>0.07066405348994623</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H19">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I19">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J19">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N19">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O19">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P19">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q19">
-        <v>1.28537606288</v>
+        <v>2.004959512402222</v>
       </c>
       <c r="R19">
-        <v>11.56838456592</v>
+        <v>18.04463561162</v>
       </c>
       <c r="S19">
-        <v>0.05708406037892807</v>
+        <v>0.09880076713192451</v>
       </c>
       <c r="T19">
-        <v>0.07922506170857604</v>
+        <v>0.126864094900386</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H20">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I20">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J20">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N20">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O20">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P20">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q20">
-        <v>0.2866443991500001</v>
+        <v>0.1029191640583333</v>
       </c>
       <c r="R20">
-        <v>1.7198663949</v>
+        <v>0.6175149843500001</v>
       </c>
       <c r="S20">
-        <v>0.01272999137053928</v>
+        <v>0.005071669676439725</v>
       </c>
       <c r="T20">
-        <v>0.01177835336386249</v>
+        <v>0.004341483045883218</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H21">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I21">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J21">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N21">
         <v>60.953383</v>
       </c>
       <c r="O21">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P21">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q21">
-        <v>0.4341235389222223</v>
+        <v>0.1262886369778889</v>
       </c>
       <c r="R21">
-        <v>3.9071118503</v>
+        <v>1.136597732801</v>
       </c>
       <c r="S21">
-        <v>0.01927959841746611</v>
+        <v>0.006223274902200325</v>
       </c>
       <c r="T21">
-        <v>0.0267575110144784</v>
+        <v>0.007990931251877153</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H22">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I22">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J22">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N22">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O22">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P22">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q22">
-        <v>0.3892680184</v>
+        <v>0.06467457729233334</v>
       </c>
       <c r="R22">
-        <v>3.5034121656</v>
+        <v>0.582071195631</v>
       </c>
       <c r="S22">
-        <v>0.01728754697371845</v>
+        <v>0.003187045828551164</v>
       </c>
       <c r="T22">
-        <v>0.02399280931824405</v>
+        <v>0.004092292966767358</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H23">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I23">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J23">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N23">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O23">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P23">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q23">
-        <v>0.3545704747333334</v>
+        <v>0.08179069899416666</v>
       </c>
       <c r="R23">
-        <v>2.1274228484</v>
+        <v>0.490744193965</v>
       </c>
       <c r="S23">
-        <v>0.0157466153079843</v>
+        <v>0.004030497251886071</v>
       </c>
       <c r="T23">
-        <v>0.01456946780117011</v>
+        <v>0.003450211981831195</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H24">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I24">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J24">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N24">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O24">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P24">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q24">
-        <v>0.2147835023333333</v>
+        <v>0.04539497574544445</v>
       </c>
       <c r="R24">
-        <v>1.933051521</v>
+        <v>0.4085547817090001</v>
       </c>
       <c r="S24">
-        <v>0.009538620462654652</v>
+        <v>0.002236982043697875</v>
       </c>
       <c r="T24">
-        <v>0.01323833290330304</v>
+        <v>0.002872373469562339</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H25">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I25">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J25">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N25">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O25">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P25">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q25">
-        <v>0.4293965271555555</v>
+        <v>0.08149819075677779</v>
       </c>
       <c r="R25">
-        <v>3.8645687444</v>
+        <v>0.7334837168110001</v>
       </c>
       <c r="S25">
-        <v>0.01906966995147639</v>
+        <v>0.004016082976651255</v>
       </c>
       <c r="T25">
-        <v>0.02646615830477238</v>
+        <v>0.005156809472920387</v>
       </c>
     </row>
   </sheetData>
